--- a/docs/StructureDefinition-onc-braden-scale-assessment.xlsx
+++ b/docs/StructureDefinition-onc-braden-scale-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-23T02:33:16+00:00</t>
+    <t>2025-11-23T21:00:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-onc-braden-scale-assessment.xlsx
+++ b/docs/StructureDefinition-onc-braden-scale-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-23T21:00:20+00:00</t>
+    <t>2025-11-23T22:00:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-onc-braden-scale-assessment.xlsx
+++ b/docs/StructureDefinition-onc-braden-scale-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-28T00:15:25+00:00</t>
+    <t>2025-11-28T01:24:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-onc-braden-scale-assessment.xlsx
+++ b/docs/StructureDefinition-onc-braden-scale-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T14:13:58+00:00</t>
+    <t>2025-12-26T15:22:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-onc-braden-scale-assessment.xlsx
+++ b/docs/StructureDefinition-onc-braden-scale-assessment.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$113</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$114</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4393" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4431" uniqueCount="571">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T15:22:58+00:00</t>
+    <t>2026-01-01T13:37:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -270,7 +270,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}onc-equity-skin-tone-required:Wound assessments MUST have an associated skin tone observation to ensure equitable care (AI Safety Gate). {hasMember.resolve().code.coding.where(code = '66555-4' or code = 'mst-score').exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -1474,10 +1474,27 @@
     <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/R4/observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](http://hl7.org/fhir/R4/questionnaireresponse.html)  into a final score and represent the score as an Observation.</t>
   </si>
   <si>
+    <t xml:space="preserve">pattern:resolve().code}
+</t>
+  </si>
+  <si>
     <t>Relationships established by OBX-4 usage</t>
   </si>
   <si>
     <t>outBoundRelationship</t>
+  </si>
+  <si>
+    <t>Observation.hasMember:skinTone</t>
+  </si>
+  <si>
+    <t>skinTone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(https://clinyqai.github.io/open-nursing-core-ig/StructureDefinition/onc-skintone-observation|https://clinyqai.github.io/open-nursing-core-ig/StructureDefinition/onc-monk-skintone-observation)
+</t>
+  </si>
+  <si>
+    <t>Mandatory Skin Tone Context (Equity Gate)</t>
   </si>
   <si>
     <t>Observation.derivedFrom</t>
@@ -2134,7 +2151,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP113"/>
+  <dimension ref="A1:AP114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2153,7 +2170,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="129.546875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="166.3515625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2170,7 +2187,7 @@
     <col min="25" max="25" width="54.2734375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="50.55078125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.484375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="13.44140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
@@ -7995,13 +8012,13 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>17</v>
@@ -8057,16 +8074,14 @@
         <v>17</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AC49" t="s" s="2">
-        <v>17</v>
-      </c>
+        <v>462</v>
+      </c>
+      <c r="AC49" s="2"/>
       <c r="AD49" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>17</v>
+        <v>196</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>457</v>
@@ -8090,10 +8105,10 @@
         <v>17</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>17</v>
@@ -8102,26 +8117,28 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" hidden="true">
+    <row r="50">
       <c r="A50" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="C50" s="2"/>
+        <v>457</v>
+      </c>
+      <c r="C50" t="s" s="2">
+        <v>466</v>
+      </c>
       <c r="D50" t="s" s="2">
         <v>17</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="I50" t="s" s="2">
         <v>17</v>
@@ -8130,16 +8147,16 @@
         <v>90</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -8189,7 +8206,7 @@
         <v>17</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
@@ -8210,10 +8227,10 @@
         <v>17</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>17</v>
@@ -8224,10 +8241,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8235,13 +8252,13 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>471</v>
+        <v>77</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>471</v>
+        <v>78</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>17</v>
@@ -8250,20 +8267,18 @@
         <v>90</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>405</v>
+        <v>470</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>472</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>473</v>
       </c>
-      <c r="N51" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>475</v>
-      </c>
+      <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>17</v>
       </c>
@@ -8299,17 +8314,19 @@
         <v>17</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="AC51" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>17</v>
+      </c>
       <c r="AD51" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>196</v>
+        <v>17</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
@@ -8330,10 +8347,10 @@
         <v>17</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>477</v>
+        <v>463</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>17</v>
@@ -8344,10 +8361,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8355,31 +8372,35 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>77</v>
+        <v>476</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>89</v>
+        <v>476</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>17</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>285</v>
+        <v>405</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>286</v>
+        <v>477</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
+        <v>478</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="O52" t="s" s="2">
+        <v>480</v>
+      </c>
       <c r="P52" t="s" s="2">
         <v>17</v>
       </c>
@@ -8415,31 +8436,29 @@
         <v>17</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>17</v>
-      </c>
+        <v>481</v>
+      </c>
+      <c r="AC52" s="2"/>
       <c r="AD52" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>17</v>
+        <v>196</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>288</v>
+        <v>475</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>17</v>
+        <v>101</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>17</v>
@@ -8448,10 +8467,10 @@
         <v>17</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>17</v>
+        <v>482</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>289</v>
+        <v>483</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>17</v>
@@ -8462,21 +8481,21 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>134</v>
+        <v>17</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>17</v>
@@ -8488,17 +8507,15 @@
         <v>17</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>135</v>
+        <v>285</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>136</v>
+        <v>286</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>17</v>
@@ -8547,19 +8564,19 @@
         <v>17</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>140</v>
+        <v>17</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>17</v>
@@ -8582,14 +8599,14 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>416</v>
+        <v>134</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8602,26 +8619,24 @@
         <v>17</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="K54" t="s" s="2">
         <v>135</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>417</v>
+        <v>136</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>418</v>
+        <v>291</v>
       </c>
       <c r="N54" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="O54" t="s" s="2">
-        <v>144</v>
-      </c>
+      <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>17</v>
       </c>
@@ -8669,7 +8684,7 @@
         <v>17</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>419</v>
+        <v>294</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>77</v>
@@ -8693,7 +8708,7 @@
         <v>17</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>132</v>
+        <v>289</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>17</v>
@@ -8704,45 +8719,45 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>17</v>
+        <v>416</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>17</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="J55" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>188</v>
+        <v>135</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>483</v>
+        <v>417</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>484</v>
+        <v>418</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>485</v>
+        <v>138</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>207</v>
+        <v>144</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>17</v>
@@ -8767,13 +8782,13 @@
         <v>17</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>209</v>
+        <v>17</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>210</v>
+        <v>17</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>211</v>
+        <v>17</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>17</v>
@@ -8791,34 +8806,34 @@
         <v>17</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>482</v>
+        <v>419</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>486</v>
+        <v>17</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>214</v>
+        <v>17</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>215</v>
+        <v>132</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>216</v>
+        <v>17</v>
       </c>
       <c r="AP55" t="s" s="2">
         <v>17</v>
@@ -8837,7 +8852,7 @@
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>89</v>
@@ -8852,19 +8867,19 @@
         <v>90</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>488</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="M56" t="s" s="2">
         <v>489</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="N56" t="s" s="2">
         <v>490</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>278</v>
+        <v>207</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>17</v>
@@ -8889,13 +8904,13 @@
         <v>17</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>17</v>
+        <v>209</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>17</v>
+        <v>210</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>17</v>
+        <v>211</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>17</v>
@@ -8916,7 +8931,7 @@
         <v>487</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>89</v>
@@ -8934,16 +8949,16 @@
         <v>491</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>281</v>
+        <v>214</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>282</v>
+        <v>215</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>17</v>
+        <v>216</v>
       </c>
       <c r="AP56" t="s" s="2">
-        <v>283</v>
+        <v>17</v>
       </c>
     </row>
     <row r="57" hidden="true">
@@ -8971,22 +8986,22 @@
         <v>17</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>188</v>
+        <v>493</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>494</v>
+        <v>276</v>
       </c>
       <c r="N57" t="s" s="2">
         <v>495</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>341</v>
+        <v>278</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>17</v>
@@ -9011,13 +9026,13 @@
         <v>17</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>342</v>
+        <v>17</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>343</v>
+        <v>17</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>344</v>
+        <v>17</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>17</v>
@@ -9044,7 +9059,7 @@
         <v>89</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>345</v>
+        <v>17</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>101</v>
@@ -9053,38 +9068,38 @@
         <v>17</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>17</v>
+        <v>496</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>132</v>
+        <v>281</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>346</v>
+        <v>282</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AP57" t="s" s="2">
-        <v>17</v>
+        <v>283</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>348</v>
+        <v>17</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>17</v>
@@ -9099,16 +9114,16 @@
         <v>188</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>349</v>
+        <v>498</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>350</v>
+        <v>499</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>351</v>
+        <v>500</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>17</v>
@@ -9136,10 +9151,10 @@
         <v>342</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>17</v>
@@ -9157,16 +9172,16 @@
         <v>17</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>17</v>
+        <v>345</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>101</v>
@@ -9175,31 +9190,31 @@
         <v>17</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>355</v>
+        <v>17</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>356</v>
+        <v>132</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AP58" t="s" s="2">
-        <v>358</v>
+        <v>17</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>17</v>
+        <v>348</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -9218,19 +9233,19 @@
         <v>17</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>79</v>
+        <v>188</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>498</v>
+        <v>349</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>499</v>
+        <v>350</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>408</v>
+        <v>351</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>409</v>
+        <v>352</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>17</v>
@@ -9255,13 +9270,13 @@
         <v>17</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>17</v>
+        <v>342</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>17</v>
+        <v>353</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>17</v>
+        <v>354</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>17</v>
@@ -9279,7 +9294,7 @@
         <v>17</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>77</v>
@@ -9297,64 +9312,62 @@
         <v>17</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>17</v>
+        <v>355</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>411</v>
+        <v>356</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>412</v>
+        <v>357</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AP59" t="s" s="2">
-        <v>17</v>
+        <v>358</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="C60" t="s" s="2">
-        <v>501</v>
-      </c>
+        <v>502</v>
+      </c>
+      <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
         <v>17</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>17</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>405</v>
+        <v>79</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>472</v>
+        <v>503</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>473</v>
+        <v>504</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>474</v>
+        <v>408</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>475</v>
+        <v>409</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>17</v>
@@ -9403,7 +9416,7 @@
         <v>17</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>470</v>
+        <v>502</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>77</v>
@@ -9424,10 +9437,10 @@
         <v>17</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>477</v>
+        <v>411</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>478</v>
+        <v>412</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>17</v>
@@ -9436,44 +9449,50 @@
         <v>17</v>
       </c>
     </row>
-    <row r="61" hidden="true">
+    <row r="61">
       <c r="A61" t="s" s="2">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="C61" s="2"/>
+        <v>475</v>
+      </c>
+      <c r="C61" t="s" s="2">
+        <v>506</v>
+      </c>
       <c r="D61" t="s" s="2">
         <v>17</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>89</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="I61" t="s" s="2">
         <v>17</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>285</v>
+        <v>405</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>286</v>
+        <v>477</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="N61" s="2"/>
-      <c r="O61" s="2"/>
+        <v>478</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="O61" t="s" s="2">
+        <v>480</v>
+      </c>
       <c r="P61" t="s" s="2">
         <v>17</v>
       </c>
@@ -9521,19 +9540,19 @@
         <v>17</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>288</v>
+        <v>475</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>17</v>
+        <v>101</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>17</v>
@@ -9542,10 +9561,10 @@
         <v>17</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>17</v>
+        <v>482</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>289</v>
+        <v>483</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>17</v>
@@ -9556,21 +9575,21 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>134</v>
+        <v>17</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>17</v>
@@ -9582,17 +9601,15 @@
         <v>17</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>135</v>
+        <v>285</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>136</v>
+        <v>286</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="N62" s="2"/>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>17</v>
@@ -9641,19 +9658,19 @@
         <v>17</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>140</v>
+        <v>17</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>17</v>
@@ -9676,14 +9693,14 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>416</v>
+        <v>134</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
@@ -9696,26 +9713,24 @@
         <v>17</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="K63" t="s" s="2">
         <v>135</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>417</v>
+        <v>136</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>418</v>
+        <v>291</v>
       </c>
       <c r="N63" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="O63" t="s" s="2">
-        <v>144</v>
-      </c>
+      <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>17</v>
       </c>
@@ -9763,7 +9778,7 @@
         <v>17</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>419</v>
+        <v>294</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>77</v>
@@ -9787,7 +9802,7 @@
         <v>17</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>132</v>
+        <v>289</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>17</v>
@@ -9798,45 +9813,45 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>17</v>
+        <v>416</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>17</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="J64" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>188</v>
+        <v>135</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>483</v>
+        <v>417</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>484</v>
+        <v>418</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>485</v>
+        <v>138</v>
       </c>
       <c r="O64" t="s" s="2">
-        <v>207</v>
+        <v>144</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>17</v>
@@ -9846,7 +9861,7 @@
         <v>17</v>
       </c>
       <c r="S64" t="s" s="2">
-        <v>506</v>
+        <v>17</v>
       </c>
       <c r="T64" t="s" s="2">
         <v>17</v>
@@ -9861,13 +9876,13 @@
         <v>17</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>209</v>
+        <v>17</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>210</v>
+        <v>17</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>211</v>
+        <v>17</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>17</v>
@@ -9885,34 +9900,34 @@
         <v>17</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>482</v>
+        <v>419</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>486</v>
+        <v>17</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>214</v>
+        <v>17</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>215</v>
+        <v>132</v>
       </c>
       <c r="AO64" t="s" s="2">
-        <v>216</v>
+        <v>17</v>
       </c>
       <c r="AP64" t="s" s="2">
         <v>17</v>
@@ -9920,7 +9935,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="B65" t="s" s="2">
         <v>487</v>
@@ -9931,7 +9946,7 @@
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>89</v>
@@ -9946,19 +9961,19 @@
         <v>90</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>274</v>
+        <v>188</v>
       </c>
       <c r="L65" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="M65" t="s" s="2">
         <v>489</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="N65" t="s" s="2">
         <v>490</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>278</v>
+        <v>207</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>17</v>
@@ -9968,7 +9983,7 @@
         <v>17</v>
       </c>
       <c r="S65" t="s" s="2">
-        <v>17</v>
+        <v>511</v>
       </c>
       <c r="T65" t="s" s="2">
         <v>17</v>
@@ -9983,13 +9998,13 @@
         <v>17</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>17</v>
+        <v>209</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>17</v>
+        <v>210</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>17</v>
+        <v>211</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>17</v>
@@ -10010,7 +10025,7 @@
         <v>487</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>89</v>
@@ -10028,21 +10043,21 @@
         <v>491</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>281</v>
+        <v>214</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>282</v>
+        <v>215</v>
       </c>
       <c r="AO65" t="s" s="2">
-        <v>17</v>
+        <v>216</v>
       </c>
       <c r="AP65" t="s" s="2">
-        <v>283</v>
+        <v>17</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="B66" t="s" s="2">
         <v>492</v>
@@ -10065,22 +10080,22 @@
         <v>17</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>188</v>
+        <v>274</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>494</v>
+        <v>276</v>
       </c>
       <c r="N66" t="s" s="2">
         <v>495</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>341</v>
+        <v>278</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>17</v>
@@ -10105,13 +10120,13 @@
         <v>17</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>342</v>
+        <v>17</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>343</v>
+        <v>17</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>344</v>
+        <v>17</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>17</v>
@@ -10138,7 +10153,7 @@
         <v>89</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>345</v>
+        <v>17</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>101</v>
@@ -10147,38 +10162,38 @@
         <v>17</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>17</v>
+        <v>496</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>132</v>
+        <v>281</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>346</v>
+        <v>282</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AP66" t="s" s="2">
-        <v>17</v>
+        <v>283</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>348</v>
+        <v>17</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>17</v>
@@ -10193,16 +10208,16 @@
         <v>188</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>349</v>
+        <v>498</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>350</v>
+        <v>499</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>351</v>
+        <v>500</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>17</v>
@@ -10230,10 +10245,10 @@
         <v>342</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>17</v>
@@ -10251,16 +10266,16 @@
         <v>17</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>17</v>
+        <v>345</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>101</v>
@@ -10269,31 +10284,31 @@
         <v>17</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>355</v>
+        <v>17</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>356</v>
+        <v>132</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AP67" t="s" s="2">
-        <v>358</v>
+        <v>17</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>17</v>
+        <v>348</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
@@ -10312,19 +10327,19 @@
         <v>17</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>79</v>
+        <v>188</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>498</v>
+        <v>349</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>499</v>
+        <v>350</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>408</v>
+        <v>351</v>
       </c>
       <c r="O68" t="s" s="2">
-        <v>409</v>
+        <v>352</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>17</v>
@@ -10349,13 +10364,13 @@
         <v>17</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>17</v>
+        <v>342</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>17</v>
+        <v>353</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>17</v>
+        <v>354</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>17</v>
@@ -10373,7 +10388,7 @@
         <v>17</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>77</v>
@@ -10391,64 +10406,62 @@
         <v>17</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>17</v>
+        <v>355</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>411</v>
+        <v>356</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>412</v>
+        <v>357</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AP68" t="s" s="2">
-        <v>17</v>
+        <v>358</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="C69" t="s" s="2">
-        <v>512</v>
-      </c>
+        <v>502</v>
+      </c>
+      <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
         <v>17</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="I69" t="s" s="2">
         <v>17</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>405</v>
+        <v>79</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>472</v>
+        <v>503</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>473</v>
+        <v>504</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>474</v>
+        <v>408</v>
       </c>
       <c r="O69" t="s" s="2">
-        <v>475</v>
+        <v>409</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>17</v>
@@ -10497,7 +10510,7 @@
         <v>17</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>470</v>
+        <v>502</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>77</v>
@@ -10518,10 +10531,10 @@
         <v>17</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>477</v>
+        <v>411</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>478</v>
+        <v>412</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>17</v>
@@ -10530,44 +10543,50 @@
         <v>17</v>
       </c>
     </row>
-    <row r="70" hidden="true">
+    <row r="70">
       <c r="A70" t="s" s="2">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="C70" s="2"/>
+        <v>475</v>
+      </c>
+      <c r="C70" t="s" s="2">
+        <v>517</v>
+      </c>
       <c r="D70" t="s" s="2">
         <v>17</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>89</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="I70" t="s" s="2">
         <v>17</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>285</v>
+        <v>405</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>286</v>
+        <v>477</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="N70" s="2"/>
-      <c r="O70" s="2"/>
+        <v>478</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="O70" t="s" s="2">
+        <v>480</v>
+      </c>
       <c r="P70" t="s" s="2">
         <v>17</v>
       </c>
@@ -10615,19 +10634,19 @@
         <v>17</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>288</v>
+        <v>475</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>17</v>
+        <v>101</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>17</v>
@@ -10636,10 +10655,10 @@
         <v>17</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>17</v>
+        <v>482</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>289</v>
+        <v>483</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>17</v>
@@ -10650,21 +10669,21 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>134</v>
+        <v>17</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>17</v>
@@ -10676,17 +10695,15 @@
         <v>17</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>135</v>
+        <v>285</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>136</v>
+        <v>286</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="N71" s="2"/>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>17</v>
@@ -10735,19 +10752,19 @@
         <v>17</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>140</v>
+        <v>17</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>17</v>
@@ -10770,14 +10787,14 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>416</v>
+        <v>134</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
@@ -10790,26 +10807,24 @@
         <v>17</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="K72" t="s" s="2">
         <v>135</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>417</v>
+        <v>136</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>418</v>
+        <v>291</v>
       </c>
       <c r="N72" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="O72" t="s" s="2">
-        <v>144</v>
-      </c>
+      <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>17</v>
       </c>
@@ -10857,7 +10872,7 @@
         <v>17</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>419</v>
+        <v>294</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>77</v>
@@ -10881,7 +10896,7 @@
         <v>17</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>132</v>
+        <v>289</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>17</v>
@@ -10892,45 +10907,45 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>17</v>
+        <v>416</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>17</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="J73" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>188</v>
+        <v>135</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>483</v>
+        <v>417</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>484</v>
+        <v>418</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>485</v>
+        <v>138</v>
       </c>
       <c r="O73" t="s" s="2">
-        <v>207</v>
+        <v>144</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>17</v>
@@ -10940,7 +10955,7 @@
         <v>17</v>
       </c>
       <c r="S73" t="s" s="2">
-        <v>517</v>
+        <v>17</v>
       </c>
       <c r="T73" t="s" s="2">
         <v>17</v>
@@ -10955,13 +10970,13 @@
         <v>17</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>209</v>
+        <v>17</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>210</v>
+        <v>17</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>211</v>
+        <v>17</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>17</v>
@@ -10979,34 +10994,34 @@
         <v>17</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>482</v>
+        <v>419</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>486</v>
+        <v>17</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>214</v>
+        <v>17</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>215</v>
+        <v>132</v>
       </c>
       <c r="AO73" t="s" s="2">
-        <v>216</v>
+        <v>17</v>
       </c>
       <c r="AP73" t="s" s="2">
         <v>17</v>
@@ -11014,7 +11029,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="B74" t="s" s="2">
         <v>487</v>
@@ -11025,7 +11040,7 @@
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>89</v>
@@ -11040,19 +11055,19 @@
         <v>90</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>274</v>
+        <v>188</v>
       </c>
       <c r="L74" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="M74" t="s" s="2">
         <v>489</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="N74" t="s" s="2">
         <v>490</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>278</v>
+        <v>207</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>17</v>
@@ -11062,7 +11077,7 @@
         <v>17</v>
       </c>
       <c r="S74" t="s" s="2">
-        <v>17</v>
+        <v>522</v>
       </c>
       <c r="T74" t="s" s="2">
         <v>17</v>
@@ -11077,13 +11092,13 @@
         <v>17</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>17</v>
+        <v>209</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>17</v>
+        <v>210</v>
       </c>
       <c r="Z74" t="s" s="2">
-        <v>17</v>
+        <v>211</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>17</v>
@@ -11104,7 +11119,7 @@
         <v>487</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>89</v>
@@ -11122,21 +11137,21 @@
         <v>491</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>281</v>
+        <v>214</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>282</v>
+        <v>215</v>
       </c>
       <c r="AO74" t="s" s="2">
-        <v>17</v>
+        <v>216</v>
       </c>
       <c r="AP74" t="s" s="2">
-        <v>283</v>
+        <v>17</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="B75" t="s" s="2">
         <v>492</v>
@@ -11159,22 +11174,22 @@
         <v>17</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>188</v>
+        <v>274</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>494</v>
+        <v>276</v>
       </c>
       <c r="N75" t="s" s="2">
         <v>495</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>341</v>
+        <v>278</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>17</v>
@@ -11199,13 +11214,13 @@
         <v>17</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>342</v>
+        <v>17</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>343</v>
+        <v>17</v>
       </c>
       <c r="Z75" t="s" s="2">
-        <v>344</v>
+        <v>17</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>17</v>
@@ -11232,7 +11247,7 @@
         <v>89</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>345</v>
+        <v>17</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>101</v>
@@ -11241,38 +11256,38 @@
         <v>17</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>17</v>
+        <v>496</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>132</v>
+        <v>281</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>346</v>
+        <v>282</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AP75" t="s" s="2">
-        <v>17</v>
+        <v>283</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>348</v>
+        <v>17</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>17</v>
@@ -11287,16 +11302,16 @@
         <v>188</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>349</v>
+        <v>498</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>350</v>
+        <v>499</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>351</v>
+        <v>500</v>
       </c>
       <c r="O76" t="s" s="2">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>17</v>
@@ -11324,10 +11339,10 @@
         <v>342</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>17</v>
@@ -11345,16 +11360,16 @@
         <v>17</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>17</v>
+        <v>345</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>101</v>
@@ -11363,31 +11378,31 @@
         <v>17</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>355</v>
+        <v>17</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>356</v>
+        <v>132</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AP76" t="s" s="2">
-        <v>358</v>
+        <v>17</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>17</v>
+        <v>348</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
@@ -11406,19 +11421,19 @@
         <v>17</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>79</v>
+        <v>188</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>498</v>
+        <v>349</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>499</v>
+        <v>350</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>408</v>
+        <v>351</v>
       </c>
       <c r="O77" t="s" s="2">
-        <v>409</v>
+        <v>352</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>17</v>
@@ -11443,13 +11458,13 @@
         <v>17</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>17</v>
+        <v>342</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>17</v>
+        <v>353</v>
       </c>
       <c r="Z77" t="s" s="2">
-        <v>17</v>
+        <v>354</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>17</v>
@@ -11467,7 +11482,7 @@
         <v>17</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>77</v>
@@ -11485,64 +11500,62 @@
         <v>17</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>17</v>
+        <v>355</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>411</v>
+        <v>356</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>412</v>
+        <v>357</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AP77" t="s" s="2">
-        <v>17</v>
+        <v>358</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="C78" t="s" s="2">
-        <v>523</v>
-      </c>
+        <v>502</v>
+      </c>
+      <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
         <v>17</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H78" t="s" s="2">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="I78" t="s" s="2">
         <v>17</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>405</v>
+        <v>79</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>472</v>
+        <v>503</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>473</v>
+        <v>504</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>474</v>
+        <v>408</v>
       </c>
       <c r="O78" t="s" s="2">
-        <v>475</v>
+        <v>409</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>17</v>
@@ -11591,7 +11604,7 @@
         <v>17</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>470</v>
+        <v>502</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>77</v>
@@ -11612,10 +11625,10 @@
         <v>17</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>477</v>
+        <v>411</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>478</v>
+        <v>412</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>17</v>
@@ -11624,44 +11637,50 @@
         <v>17</v>
       </c>
     </row>
-    <row r="79" hidden="true">
+    <row r="79">
       <c r="A79" t="s" s="2">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="C79" s="2"/>
+        <v>475</v>
+      </c>
+      <c r="C79" t="s" s="2">
+        <v>528</v>
+      </c>
       <c r="D79" t="s" s="2">
         <v>17</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>89</v>
       </c>
       <c r="H79" t="s" s="2">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="I79" t="s" s="2">
         <v>17</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>285</v>
+        <v>405</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>286</v>
+        <v>477</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="N79" s="2"/>
-      <c r="O79" s="2"/>
+        <v>478</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="O79" t="s" s="2">
+        <v>480</v>
+      </c>
       <c r="P79" t="s" s="2">
         <v>17</v>
       </c>
@@ -11709,19 +11728,19 @@
         <v>17</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>288</v>
+        <v>475</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>17</v>
+        <v>101</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>17</v>
@@ -11730,10 +11749,10 @@
         <v>17</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>17</v>
+        <v>482</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>289</v>
+        <v>483</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>17</v>
@@ -11744,21 +11763,21 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>134</v>
+        <v>17</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>17</v>
@@ -11770,17 +11789,15 @@
         <v>17</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>135</v>
+        <v>285</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>136</v>
+        <v>286</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="N80" s="2"/>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
         <v>17</v>
@@ -11829,19 +11846,19 @@
         <v>17</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>140</v>
+        <v>17</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>17</v>
@@ -11864,14 +11881,14 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>416</v>
+        <v>134</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
@@ -11884,26 +11901,24 @@
         <v>17</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="K81" t="s" s="2">
         <v>135</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>417</v>
+        <v>136</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>418</v>
+        <v>291</v>
       </c>
       <c r="N81" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="O81" t="s" s="2">
-        <v>144</v>
-      </c>
+      <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>17</v>
       </c>
@@ -11951,7 +11966,7 @@
         <v>17</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>419</v>
+        <v>294</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>77</v>
@@ -11975,7 +11990,7 @@
         <v>17</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>132</v>
+        <v>289</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>17</v>
@@ -11986,45 +12001,45 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>17</v>
+        <v>416</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>17</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="J82" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>188</v>
+        <v>135</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>483</v>
+        <v>417</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>484</v>
+        <v>418</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>485</v>
+        <v>138</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>207</v>
+        <v>144</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>17</v>
@@ -12034,7 +12049,7 @@
         <v>17</v>
       </c>
       <c r="S82" t="s" s="2">
-        <v>528</v>
+        <v>17</v>
       </c>
       <c r="T82" t="s" s="2">
         <v>17</v>
@@ -12049,13 +12064,13 @@
         <v>17</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>209</v>
+        <v>17</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>210</v>
+        <v>17</v>
       </c>
       <c r="Z82" t="s" s="2">
-        <v>211</v>
+        <v>17</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>17</v>
@@ -12073,34 +12088,34 @@
         <v>17</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>482</v>
+        <v>419</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>486</v>
+        <v>17</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>214</v>
+        <v>17</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>215</v>
+        <v>132</v>
       </c>
       <c r="AO82" t="s" s="2">
-        <v>216</v>
+        <v>17</v>
       </c>
       <c r="AP82" t="s" s="2">
         <v>17</v>
@@ -12108,7 +12123,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="B83" t="s" s="2">
         <v>487</v>
@@ -12119,7 +12134,7 @@
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>89</v>
@@ -12134,19 +12149,19 @@
         <v>90</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>274</v>
+        <v>188</v>
       </c>
       <c r="L83" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="M83" t="s" s="2">
         <v>489</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="N83" t="s" s="2">
         <v>490</v>
       </c>
       <c r="O83" t="s" s="2">
-        <v>278</v>
+        <v>207</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>17</v>
@@ -12156,7 +12171,7 @@
         <v>17</v>
       </c>
       <c r="S83" t="s" s="2">
-        <v>17</v>
+        <v>533</v>
       </c>
       <c r="T83" t="s" s="2">
         <v>17</v>
@@ -12171,13 +12186,13 @@
         <v>17</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>17</v>
+        <v>209</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>17</v>
+        <v>210</v>
       </c>
       <c r="Z83" t="s" s="2">
-        <v>17</v>
+        <v>211</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>17</v>
@@ -12198,7 +12213,7 @@
         <v>487</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>89</v>
@@ -12216,21 +12231,21 @@
         <v>491</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>281</v>
+        <v>214</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>282</v>
+        <v>215</v>
       </c>
       <c r="AO83" t="s" s="2">
-        <v>17</v>
+        <v>216</v>
       </c>
       <c r="AP83" t="s" s="2">
-        <v>283</v>
+        <v>17</v>
       </c>
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="B84" t="s" s="2">
         <v>492</v>
@@ -12253,22 +12268,22 @@
         <v>17</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>188</v>
+        <v>274</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>494</v>
+        <v>276</v>
       </c>
       <c r="N84" t="s" s="2">
         <v>495</v>
       </c>
       <c r="O84" t="s" s="2">
-        <v>341</v>
+        <v>278</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>17</v>
@@ -12293,13 +12308,13 @@
         <v>17</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>342</v>
+        <v>17</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>343</v>
+        <v>17</v>
       </c>
       <c r="Z84" t="s" s="2">
-        <v>344</v>
+        <v>17</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>17</v>
@@ -12326,7 +12341,7 @@
         <v>89</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>345</v>
+        <v>17</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>101</v>
@@ -12335,38 +12350,38 @@
         <v>17</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>17</v>
+        <v>496</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>132</v>
+        <v>281</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>346</v>
+        <v>282</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AP84" t="s" s="2">
-        <v>17</v>
+        <v>283</v>
       </c>
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
-        <v>348</v>
+        <v>17</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>17</v>
@@ -12381,16 +12396,16 @@
         <v>188</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>349</v>
+        <v>498</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>350</v>
+        <v>499</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>351</v>
+        <v>500</v>
       </c>
       <c r="O85" t="s" s="2">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>17</v>
@@ -12418,10 +12433,10 @@
         <v>342</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="Z85" t="s" s="2">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="AA85" t="s" s="2">
         <v>17</v>
@@ -12439,16 +12454,16 @@
         <v>17</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>17</v>
+        <v>345</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>101</v>
@@ -12457,31 +12472,31 @@
         <v>17</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>355</v>
+        <v>17</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>356</v>
+        <v>132</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AP85" t="s" s="2">
-        <v>358</v>
+        <v>17</v>
       </c>
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>17</v>
+        <v>348</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
@@ -12500,19 +12515,19 @@
         <v>17</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>79</v>
+        <v>188</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>498</v>
+        <v>349</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>499</v>
+        <v>350</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>408</v>
+        <v>351</v>
       </c>
       <c r="O86" t="s" s="2">
-        <v>409</v>
+        <v>352</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>17</v>
@@ -12537,13 +12552,13 @@
         <v>17</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>17</v>
+        <v>342</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>17</v>
+        <v>353</v>
       </c>
       <c r="Z86" t="s" s="2">
-        <v>17</v>
+        <v>354</v>
       </c>
       <c r="AA86" t="s" s="2">
         <v>17</v>
@@ -12561,7 +12576,7 @@
         <v>17</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>77</v>
@@ -12579,64 +12594,62 @@
         <v>17</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>17</v>
+        <v>355</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>411</v>
+        <v>356</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>412</v>
+        <v>357</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AP86" t="s" s="2">
-        <v>17</v>
+        <v>358</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="C87" t="s" s="2">
-        <v>534</v>
-      </c>
+        <v>502</v>
+      </c>
+      <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
         <v>17</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H87" t="s" s="2">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="I87" t="s" s="2">
         <v>17</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>405</v>
+        <v>79</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>472</v>
+        <v>503</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>473</v>
+        <v>504</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>474</v>
+        <v>408</v>
       </c>
       <c r="O87" t="s" s="2">
-        <v>475</v>
+        <v>409</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>17</v>
@@ -12685,7 +12698,7 @@
         <v>17</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>470</v>
+        <v>502</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>77</v>
@@ -12706,10 +12719,10 @@
         <v>17</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>477</v>
+        <v>411</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>478</v>
+        <v>412</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>17</v>
@@ -12718,44 +12731,50 @@
         <v>17</v>
       </c>
     </row>
-    <row r="88" hidden="true">
+    <row r="88">
       <c r="A88" t="s" s="2">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="C88" s="2"/>
+        <v>475</v>
+      </c>
+      <c r="C88" t="s" s="2">
+        <v>539</v>
+      </c>
       <c r="D88" t="s" s="2">
         <v>17</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="G88" t="s" s="2">
         <v>89</v>
       </c>
       <c r="H88" t="s" s="2">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="I88" t="s" s="2">
         <v>17</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>285</v>
+        <v>405</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>286</v>
+        <v>477</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="N88" s="2"/>
-      <c r="O88" s="2"/>
+        <v>478</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="O88" t="s" s="2">
+        <v>480</v>
+      </c>
       <c r="P88" t="s" s="2">
         <v>17</v>
       </c>
@@ -12803,19 +12822,19 @@
         <v>17</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>288</v>
+        <v>475</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>17</v>
+        <v>101</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>17</v>
@@ -12824,10 +12843,10 @@
         <v>17</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>17</v>
+        <v>482</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>289</v>
+        <v>483</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>17</v>
@@ -12838,21 +12857,21 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>134</v>
+        <v>17</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>17</v>
@@ -12864,17 +12883,15 @@
         <v>17</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>135</v>
+        <v>285</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>136</v>
+        <v>286</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="N89" s="2"/>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
         <v>17</v>
@@ -12923,19 +12940,19 @@
         <v>17</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>140</v>
+        <v>17</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>17</v>
@@ -12958,14 +12975,14 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>416</v>
+        <v>134</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
@@ -12978,26 +12995,24 @@
         <v>17</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="K90" t="s" s="2">
         <v>135</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>417</v>
+        <v>136</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>418</v>
+        <v>291</v>
       </c>
       <c r="N90" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="O90" t="s" s="2">
-        <v>144</v>
-      </c>
+      <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
         <v>17</v>
       </c>
@@ -13045,7 +13060,7 @@
         <v>17</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>419</v>
+        <v>294</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>77</v>
@@ -13069,7 +13084,7 @@
         <v>17</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>132</v>
+        <v>289</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>17</v>
@@ -13080,45 +13095,45 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
-        <v>17</v>
+        <v>416</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>17</v>
       </c>
       <c r="I91" t="s" s="2">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="J91" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>188</v>
+        <v>135</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>483</v>
+        <v>417</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>484</v>
+        <v>418</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>485</v>
+        <v>138</v>
       </c>
       <c r="O91" t="s" s="2">
-        <v>207</v>
+        <v>144</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>17</v>
@@ -13128,7 +13143,7 @@
         <v>17</v>
       </c>
       <c r="S91" t="s" s="2">
-        <v>539</v>
+        <v>17</v>
       </c>
       <c r="T91" t="s" s="2">
         <v>17</v>
@@ -13143,13 +13158,13 @@
         <v>17</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>209</v>
+        <v>17</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>210</v>
+        <v>17</v>
       </c>
       <c r="Z91" t="s" s="2">
-        <v>211</v>
+        <v>17</v>
       </c>
       <c r="AA91" t="s" s="2">
         <v>17</v>
@@ -13167,34 +13182,34 @@
         <v>17</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>482</v>
+        <v>419</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>486</v>
+        <v>17</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>214</v>
+        <v>17</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>215</v>
+        <v>132</v>
       </c>
       <c r="AO91" t="s" s="2">
-        <v>216</v>
+        <v>17</v>
       </c>
       <c r="AP91" t="s" s="2">
         <v>17</v>
@@ -13202,7 +13217,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="B92" t="s" s="2">
         <v>487</v>
@@ -13213,7 +13228,7 @@
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="G92" t="s" s="2">
         <v>89</v>
@@ -13228,19 +13243,19 @@
         <v>90</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>274</v>
+        <v>188</v>
       </c>
       <c r="L92" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="M92" t="s" s="2">
         <v>489</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="N92" t="s" s="2">
         <v>490</v>
       </c>
       <c r="O92" t="s" s="2">
-        <v>278</v>
+        <v>207</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>17</v>
@@ -13250,7 +13265,7 @@
         <v>17</v>
       </c>
       <c r="S92" t="s" s="2">
-        <v>17</v>
+        <v>544</v>
       </c>
       <c r="T92" t="s" s="2">
         <v>17</v>
@@ -13265,13 +13280,13 @@
         <v>17</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>17</v>
+        <v>209</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>17</v>
+        <v>210</v>
       </c>
       <c r="Z92" t="s" s="2">
-        <v>17</v>
+        <v>211</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>17</v>
@@ -13292,7 +13307,7 @@
         <v>487</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>89</v>
@@ -13310,21 +13325,21 @@
         <v>491</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>281</v>
+        <v>214</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>282</v>
+        <v>215</v>
       </c>
       <c r="AO92" t="s" s="2">
-        <v>17</v>
+        <v>216</v>
       </c>
       <c r="AP92" t="s" s="2">
-        <v>283</v>
+        <v>17</v>
       </c>
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>492</v>
@@ -13347,22 +13362,22 @@
         <v>17</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>188</v>
+        <v>274</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>494</v>
+        <v>276</v>
       </c>
       <c r="N93" t="s" s="2">
         <v>495</v>
       </c>
       <c r="O93" t="s" s="2">
-        <v>341</v>
+        <v>278</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>17</v>
@@ -13387,13 +13402,13 @@
         <v>17</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>342</v>
+        <v>17</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>343</v>
+        <v>17</v>
       </c>
       <c r="Z93" t="s" s="2">
-        <v>344</v>
+        <v>17</v>
       </c>
       <c r="AA93" t="s" s="2">
         <v>17</v>
@@ -13420,7 +13435,7 @@
         <v>89</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>345</v>
+        <v>17</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>101</v>
@@ -13429,38 +13444,38 @@
         <v>17</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>17</v>
+        <v>496</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>132</v>
+        <v>281</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>346</v>
+        <v>282</v>
       </c>
       <c r="AO93" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AP93" t="s" s="2">
-        <v>17</v>
+        <v>283</v>
       </c>
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
-        <v>348</v>
+        <v>17</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>17</v>
@@ -13475,16 +13490,16 @@
         <v>188</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>349</v>
+        <v>498</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>350</v>
+        <v>499</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>351</v>
+        <v>500</v>
       </c>
       <c r="O94" t="s" s="2">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>17</v>
@@ -13512,10 +13527,10 @@
         <v>342</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="Z94" t="s" s="2">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="AA94" t="s" s="2">
         <v>17</v>
@@ -13533,16 +13548,16 @@
         <v>17</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>17</v>
+        <v>345</v>
       </c>
       <c r="AJ94" t="s" s="2">
         <v>101</v>
@@ -13551,31 +13566,31 @@
         <v>17</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>355</v>
+        <v>17</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>356</v>
+        <v>132</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AP94" t="s" s="2">
-        <v>358</v>
+        <v>17</v>
       </c>
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
-        <v>17</v>
+        <v>348</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
@@ -13594,19 +13609,19 @@
         <v>17</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>79</v>
+        <v>188</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>498</v>
+        <v>349</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>499</v>
+        <v>350</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>408</v>
+        <v>351</v>
       </c>
       <c r="O95" t="s" s="2">
-        <v>409</v>
+        <v>352</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>17</v>
@@ -13631,13 +13646,13 @@
         <v>17</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>17</v>
+        <v>342</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>17</v>
+        <v>353</v>
       </c>
       <c r="Z95" t="s" s="2">
-        <v>17</v>
+        <v>354</v>
       </c>
       <c r="AA95" t="s" s="2">
         <v>17</v>
@@ -13655,7 +13670,7 @@
         <v>17</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>77</v>
@@ -13673,64 +13688,62 @@
         <v>17</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>17</v>
+        <v>355</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>411</v>
+        <v>356</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>412</v>
+        <v>357</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AP95" t="s" s="2">
-        <v>17</v>
+        <v>358</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="C96" t="s" s="2">
-        <v>545</v>
-      </c>
+        <v>502</v>
+      </c>
+      <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
         <v>17</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="G96" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H96" t="s" s="2">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="I96" t="s" s="2">
         <v>17</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>405</v>
+        <v>79</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>472</v>
+        <v>503</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>473</v>
+        <v>504</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>474</v>
+        <v>408</v>
       </c>
       <c r="O96" t="s" s="2">
-        <v>475</v>
+        <v>409</v>
       </c>
       <c r="P96" t="s" s="2">
         <v>17</v>
@@ -13779,7 +13792,7 @@
         <v>17</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>470</v>
+        <v>502</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>77</v>
@@ -13800,10 +13813,10 @@
         <v>17</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>477</v>
+        <v>411</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>478</v>
+        <v>412</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>17</v>
@@ -13812,44 +13825,50 @@
         <v>17</v>
       </c>
     </row>
-    <row r="97" hidden="true">
+    <row r="97">
       <c r="A97" t="s" s="2">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="C97" s="2"/>
+        <v>475</v>
+      </c>
+      <c r="C97" t="s" s="2">
+        <v>550</v>
+      </c>
       <c r="D97" t="s" s="2">
         <v>17</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="G97" t="s" s="2">
         <v>89</v>
       </c>
       <c r="H97" t="s" s="2">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="I97" t="s" s="2">
         <v>17</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>285</v>
+        <v>405</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>286</v>
+        <v>477</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="N97" s="2"/>
-      <c r="O97" s="2"/>
+        <v>478</v>
+      </c>
+      <c r="N97" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="O97" t="s" s="2">
+        <v>480</v>
+      </c>
       <c r="P97" t="s" s="2">
         <v>17</v>
       </c>
@@ -13897,19 +13916,19 @@
         <v>17</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>288</v>
+        <v>475</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AI97" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>17</v>
+        <v>101</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>17</v>
@@ -13918,10 +13937,10 @@
         <v>17</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>17</v>
+        <v>482</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>289</v>
+        <v>483</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>17</v>
@@ -13932,21 +13951,21 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
-        <v>134</v>
+        <v>17</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H98" t="s" s="2">
         <v>17</v>
@@ -13958,17 +13977,15 @@
         <v>17</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>135</v>
+        <v>285</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>136</v>
+        <v>286</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="N98" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="N98" s="2"/>
       <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
         <v>17</v>
@@ -14017,19 +14034,19 @@
         <v>17</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI98" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>140</v>
+        <v>17</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>17</v>
@@ -14052,14 +14069,14 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
-        <v>416</v>
+        <v>134</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" t="s" s="2">
@@ -14072,26 +14089,24 @@
         <v>17</v>
       </c>
       <c r="I99" t="s" s="2">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="K99" t="s" s="2">
         <v>135</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>417</v>
+        <v>136</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>418</v>
+        <v>291</v>
       </c>
       <c r="N99" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="O99" t="s" s="2">
-        <v>144</v>
-      </c>
+      <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
         <v>17</v>
       </c>
@@ -14139,7 +14154,7 @@
         <v>17</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>419</v>
+        <v>294</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>77</v>
@@ -14163,7 +14178,7 @@
         <v>17</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>132</v>
+        <v>289</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>17</v>
@@ -14174,45 +14189,45 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
-        <v>17</v>
+        <v>416</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H100" t="s" s="2">
         <v>17</v>
       </c>
       <c r="I100" t="s" s="2">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="J100" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>188</v>
+        <v>135</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>483</v>
+        <v>417</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>484</v>
+        <v>418</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>485</v>
+        <v>138</v>
       </c>
       <c r="O100" t="s" s="2">
-        <v>207</v>
+        <v>144</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>17</v>
@@ -14222,7 +14237,7 @@
         <v>17</v>
       </c>
       <c r="S100" t="s" s="2">
-        <v>550</v>
+        <v>17</v>
       </c>
       <c r="T100" t="s" s="2">
         <v>17</v>
@@ -14237,13 +14252,13 @@
         <v>17</v>
       </c>
       <c r="X100" t="s" s="2">
-        <v>209</v>
+        <v>17</v>
       </c>
       <c r="Y100" t="s" s="2">
-        <v>210</v>
+        <v>17</v>
       </c>
       <c r="Z100" t="s" s="2">
-        <v>211</v>
+        <v>17</v>
       </c>
       <c r="AA100" t="s" s="2">
         <v>17</v>
@@ -14261,34 +14276,34 @@
         <v>17</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>482</v>
+        <v>419</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AI100" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK100" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>486</v>
+        <v>17</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>214</v>
+        <v>17</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>215</v>
+        <v>132</v>
       </c>
       <c r="AO100" t="s" s="2">
-        <v>216</v>
+        <v>17</v>
       </c>
       <c r="AP100" t="s" s="2">
         <v>17</v>
@@ -14296,7 +14311,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="B101" t="s" s="2">
         <v>487</v>
@@ -14307,7 +14322,7 @@
       </c>
       <c r="E101" s="2"/>
       <c r="F101" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="G101" t="s" s="2">
         <v>89</v>
@@ -14322,19 +14337,19 @@
         <v>90</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>274</v>
+        <v>188</v>
       </c>
       <c r="L101" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="M101" t="s" s="2">
         <v>489</v>
-      </c>
-      <c r="M101" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="N101" t="s" s="2">
         <v>490</v>
       </c>
       <c r="O101" t="s" s="2">
-        <v>278</v>
+        <v>207</v>
       </c>
       <c r="P101" t="s" s="2">
         <v>17</v>
@@ -14344,7 +14359,7 @@
         <v>17</v>
       </c>
       <c r="S101" t="s" s="2">
-        <v>17</v>
+        <v>555</v>
       </c>
       <c r="T101" t="s" s="2">
         <v>17</v>
@@ -14359,13 +14374,13 @@
         <v>17</v>
       </c>
       <c r="X101" t="s" s="2">
-        <v>17</v>
+        <v>209</v>
       </c>
       <c r="Y101" t="s" s="2">
-        <v>17</v>
+        <v>210</v>
       </c>
       <c r="Z101" t="s" s="2">
-        <v>17</v>
+        <v>211</v>
       </c>
       <c r="AA101" t="s" s="2">
         <v>17</v>
@@ -14386,7 +14401,7 @@
         <v>487</v>
       </c>
       <c r="AG101" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="AH101" t="s" s="2">
         <v>89</v>
@@ -14404,21 +14419,21 @@
         <v>491</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>281</v>
+        <v>214</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>282</v>
+        <v>215</v>
       </c>
       <c r="AO101" t="s" s="2">
-        <v>17</v>
+        <v>216</v>
       </c>
       <c r="AP101" t="s" s="2">
-        <v>283</v>
+        <v>17</v>
       </c>
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="B102" t="s" s="2">
         <v>492</v>
@@ -14441,22 +14456,22 @@
         <v>17</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>188</v>
+        <v>274</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>494</v>
+        <v>276</v>
       </c>
       <c r="N102" t="s" s="2">
         <v>495</v>
       </c>
       <c r="O102" t="s" s="2">
-        <v>341</v>
+        <v>278</v>
       </c>
       <c r="P102" t="s" s="2">
         <v>17</v>
@@ -14481,13 +14496,13 @@
         <v>17</v>
       </c>
       <c r="X102" t="s" s="2">
-        <v>342</v>
+        <v>17</v>
       </c>
       <c r="Y102" t="s" s="2">
-        <v>343</v>
+        <v>17</v>
       </c>
       <c r="Z102" t="s" s="2">
-        <v>344</v>
+        <v>17</v>
       </c>
       <c r="AA102" t="s" s="2">
         <v>17</v>
@@ -14514,7 +14529,7 @@
         <v>89</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>345</v>
+        <v>17</v>
       </c>
       <c r="AJ102" t="s" s="2">
         <v>101</v>
@@ -14523,38 +14538,38 @@
         <v>17</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>17</v>
+        <v>496</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>132</v>
+        <v>281</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>346</v>
+        <v>282</v>
       </c>
       <c r="AO102" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AP102" t="s" s="2">
-        <v>17</v>
+        <v>283</v>
       </c>
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
-        <v>348</v>
+        <v>17</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G103" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H103" t="s" s="2">
         <v>17</v>
@@ -14569,16 +14584,16 @@
         <v>188</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>349</v>
+        <v>498</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>350</v>
+        <v>499</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>351</v>
+        <v>500</v>
       </c>
       <c r="O103" t="s" s="2">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>17</v>
@@ -14606,10 +14621,10 @@
         <v>342</v>
       </c>
       <c r="Y103" t="s" s="2">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="Z103" t="s" s="2">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="AA103" t="s" s="2">
         <v>17</v>
@@ -14627,16 +14642,16 @@
         <v>17</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH103" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>17</v>
+        <v>345</v>
       </c>
       <c r="AJ103" t="s" s="2">
         <v>101</v>
@@ -14645,31 +14660,31 @@
         <v>17</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>355</v>
+        <v>17</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>356</v>
+        <v>132</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="AO103" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AP103" t="s" s="2">
-        <v>358</v>
+        <v>17</v>
       </c>
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
-        <v>17</v>
+        <v>348</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" t="s" s="2">
@@ -14688,19 +14703,19 @@
         <v>17</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>79</v>
+        <v>188</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>498</v>
+        <v>349</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>499</v>
+        <v>350</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>408</v>
+        <v>351</v>
       </c>
       <c r="O104" t="s" s="2">
-        <v>409</v>
+        <v>352</v>
       </c>
       <c r="P104" t="s" s="2">
         <v>17</v>
@@ -14725,13 +14740,13 @@
         <v>17</v>
       </c>
       <c r="X104" t="s" s="2">
-        <v>17</v>
+        <v>342</v>
       </c>
       <c r="Y104" t="s" s="2">
-        <v>17</v>
+        <v>353</v>
       </c>
       <c r="Z104" t="s" s="2">
-        <v>17</v>
+        <v>354</v>
       </c>
       <c r="AA104" t="s" s="2">
         <v>17</v>
@@ -14749,7 +14764,7 @@
         <v>17</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>77</v>
@@ -14767,64 +14782,62 @@
         <v>17</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>17</v>
+        <v>355</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>411</v>
+        <v>356</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>412</v>
+        <v>357</v>
       </c>
       <c r="AO104" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AP104" t="s" s="2">
-        <v>17</v>
+        <v>358</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="C105" t="s" s="2">
-        <v>556</v>
-      </c>
+        <v>502</v>
+      </c>
+      <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
         <v>17</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="G105" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H105" t="s" s="2">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="I105" t="s" s="2">
         <v>17</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>405</v>
+        <v>79</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>472</v>
+        <v>503</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>473</v>
+        <v>504</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>474</v>
+        <v>408</v>
       </c>
       <c r="O105" t="s" s="2">
-        <v>475</v>
+        <v>409</v>
       </c>
       <c r="P105" t="s" s="2">
         <v>17</v>
@@ -14873,7 +14886,7 @@
         <v>17</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>470</v>
+        <v>502</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>77</v>
@@ -14894,10 +14907,10 @@
         <v>17</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>477</v>
+        <v>411</v>
       </c>
       <c r="AN105" t="s" s="2">
-        <v>478</v>
+        <v>412</v>
       </c>
       <c r="AO105" t="s" s="2">
         <v>17</v>
@@ -14906,44 +14919,50 @@
         <v>17</v>
       </c>
     </row>
-    <row r="106" hidden="true">
+    <row r="106">
       <c r="A106" t="s" s="2">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="C106" s="2"/>
+        <v>475</v>
+      </c>
+      <c r="C106" t="s" s="2">
+        <v>561</v>
+      </c>
       <c r="D106" t="s" s="2">
         <v>17</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="G106" t="s" s="2">
         <v>89</v>
       </c>
       <c r="H106" t="s" s="2">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="I106" t="s" s="2">
         <v>17</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>285</v>
+        <v>405</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>286</v>
+        <v>477</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="N106" s="2"/>
-      <c r="O106" s="2"/>
+        <v>478</v>
+      </c>
+      <c r="N106" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="O106" t="s" s="2">
+        <v>480</v>
+      </c>
       <c r="P106" t="s" s="2">
         <v>17</v>
       </c>
@@ -14991,19 +15010,19 @@
         <v>17</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>288</v>
+        <v>475</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH106" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AI106" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>17</v>
+        <v>101</v>
       </c>
       <c r="AK106" t="s" s="2">
         <v>17</v>
@@ -15012,10 +15031,10 @@
         <v>17</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>17</v>
+        <v>482</v>
       </c>
       <c r="AN106" t="s" s="2">
-        <v>289</v>
+        <v>483</v>
       </c>
       <c r="AO106" t="s" s="2">
         <v>17</v>
@@ -15026,21 +15045,21 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
-        <v>134</v>
+        <v>17</v>
       </c>
       <c r="E107" s="2"/>
       <c r="F107" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G107" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H107" t="s" s="2">
         <v>17</v>
@@ -15052,17 +15071,15 @@
         <v>17</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>135</v>
+        <v>285</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>136</v>
+        <v>286</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="N107" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="N107" s="2"/>
       <c r="O107" s="2"/>
       <c r="P107" t="s" s="2">
         <v>17</v>
@@ -15111,19 +15128,19 @@
         <v>17</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH107" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI107" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>140</v>
+        <v>17</v>
       </c>
       <c r="AK107" t="s" s="2">
         <v>17</v>
@@ -15146,14 +15163,14 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
-        <v>416</v>
+        <v>134</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108" t="s" s="2">
@@ -15166,26 +15183,24 @@
         <v>17</v>
       </c>
       <c r="I108" t="s" s="2">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="K108" t="s" s="2">
         <v>135</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>417</v>
+        <v>136</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>418</v>
+        <v>291</v>
       </c>
       <c r="N108" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="O108" t="s" s="2">
-        <v>144</v>
-      </c>
+      <c r="O108" s="2"/>
       <c r="P108" t="s" s="2">
         <v>17</v>
       </c>
@@ -15233,7 +15248,7 @@
         <v>17</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>419</v>
+        <v>294</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>77</v>
@@ -15257,7 +15272,7 @@
         <v>17</v>
       </c>
       <c r="AN108" t="s" s="2">
-        <v>132</v>
+        <v>289</v>
       </c>
       <c r="AO108" t="s" s="2">
         <v>17</v>
@@ -15268,45 +15283,45 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
-        <v>17</v>
+        <v>416</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="G109" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H109" t="s" s="2">
         <v>17</v>
       </c>
       <c r="I109" t="s" s="2">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="J109" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>188</v>
+        <v>135</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>483</v>
+        <v>417</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>484</v>
+        <v>418</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>485</v>
+        <v>138</v>
       </c>
       <c r="O109" t="s" s="2">
-        <v>207</v>
+        <v>144</v>
       </c>
       <c r="P109" t="s" s="2">
         <v>17</v>
@@ -15316,7 +15331,7 @@
         <v>17</v>
       </c>
       <c r="S109" t="s" s="2">
-        <v>561</v>
+        <v>17</v>
       </c>
       <c r="T109" t="s" s="2">
         <v>17</v>
@@ -15331,13 +15346,13 @@
         <v>17</v>
       </c>
       <c r="X109" t="s" s="2">
-        <v>209</v>
+        <v>17</v>
       </c>
       <c r="Y109" t="s" s="2">
-        <v>210</v>
+        <v>17</v>
       </c>
       <c r="Z109" t="s" s="2">
-        <v>211</v>
+        <v>17</v>
       </c>
       <c r="AA109" t="s" s="2">
         <v>17</v>
@@ -15355,34 +15370,34 @@
         <v>17</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>482</v>
+        <v>419</v>
       </c>
       <c r="AG109" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="AH109" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AI109" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ109" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK109" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>486</v>
+        <v>17</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>214</v>
+        <v>17</v>
       </c>
       <c r="AN109" t="s" s="2">
-        <v>215</v>
+        <v>132</v>
       </c>
       <c r="AO109" t="s" s="2">
-        <v>216</v>
+        <v>17</v>
       </c>
       <c r="AP109" t="s" s="2">
         <v>17</v>
@@ -15390,7 +15405,7 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="B110" t="s" s="2">
         <v>487</v>
@@ -15401,7 +15416,7 @@
       </c>
       <c r="E110" s="2"/>
       <c r="F110" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="G110" t="s" s="2">
         <v>89</v>
@@ -15416,19 +15431,19 @@
         <v>90</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>274</v>
+        <v>188</v>
       </c>
       <c r="L110" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="M110" t="s" s="2">
         <v>489</v>
-      </c>
-      <c r="M110" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="N110" t="s" s="2">
         <v>490</v>
       </c>
       <c r="O110" t="s" s="2">
-        <v>278</v>
+        <v>207</v>
       </c>
       <c r="P110" t="s" s="2">
         <v>17</v>
@@ -15438,7 +15453,7 @@
         <v>17</v>
       </c>
       <c r="S110" t="s" s="2">
-        <v>17</v>
+        <v>566</v>
       </c>
       <c r="T110" t="s" s="2">
         <v>17</v>
@@ -15453,13 +15468,13 @@
         <v>17</v>
       </c>
       <c r="X110" t="s" s="2">
-        <v>17</v>
+        <v>209</v>
       </c>
       <c r="Y110" t="s" s="2">
-        <v>17</v>
+        <v>210</v>
       </c>
       <c r="Z110" t="s" s="2">
-        <v>17</v>
+        <v>211</v>
       </c>
       <c r="AA110" t="s" s="2">
         <v>17</v>
@@ -15480,7 +15495,7 @@
         <v>487</v>
       </c>
       <c r="AG110" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="AH110" t="s" s="2">
         <v>89</v>
@@ -15498,21 +15513,21 @@
         <v>491</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>281</v>
+        <v>214</v>
       </c>
       <c r="AN110" t="s" s="2">
-        <v>282</v>
+        <v>215</v>
       </c>
       <c r="AO110" t="s" s="2">
-        <v>17</v>
+        <v>216</v>
       </c>
       <c r="AP110" t="s" s="2">
-        <v>283</v>
+        <v>17</v>
       </c>
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="B111" t="s" s="2">
         <v>492</v>
@@ -15535,22 +15550,22 @@
         <v>17</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>188</v>
+        <v>274</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>494</v>
+        <v>276</v>
       </c>
       <c r="N111" t="s" s="2">
         <v>495</v>
       </c>
       <c r="O111" t="s" s="2">
-        <v>341</v>
+        <v>278</v>
       </c>
       <c r="P111" t="s" s="2">
         <v>17</v>
@@ -15575,13 +15590,13 @@
         <v>17</v>
       </c>
       <c r="X111" t="s" s="2">
-        <v>342</v>
+        <v>17</v>
       </c>
       <c r="Y111" t="s" s="2">
-        <v>343</v>
+        <v>17</v>
       </c>
       <c r="Z111" t="s" s="2">
-        <v>344</v>
+        <v>17</v>
       </c>
       <c r="AA111" t="s" s="2">
         <v>17</v>
@@ -15608,7 +15623,7 @@
         <v>89</v>
       </c>
       <c r="AI111" t="s" s="2">
-        <v>345</v>
+        <v>17</v>
       </c>
       <c r="AJ111" t="s" s="2">
         <v>101</v>
@@ -15617,38 +15632,38 @@
         <v>17</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>17</v>
+        <v>496</v>
       </c>
       <c r="AM111" t="s" s="2">
-        <v>132</v>
+        <v>281</v>
       </c>
       <c r="AN111" t="s" s="2">
-        <v>346</v>
+        <v>282</v>
       </c>
       <c r="AO111" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AP111" t="s" s="2">
-        <v>17</v>
+        <v>283</v>
       </c>
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
-        <v>348</v>
+        <v>17</v>
       </c>
       <c r="E112" s="2"/>
       <c r="F112" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G112" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H112" t="s" s="2">
         <v>17</v>
@@ -15663,16 +15678,16 @@
         <v>188</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>349</v>
+        <v>498</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>350</v>
+        <v>499</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>351</v>
+        <v>500</v>
       </c>
       <c r="O112" t="s" s="2">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="P112" t="s" s="2">
         <v>17</v>
@@ -15700,10 +15715,10 @@
         <v>342</v>
       </c>
       <c r="Y112" t="s" s="2">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="Z112" t="s" s="2">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="AA112" t="s" s="2">
         <v>17</v>
@@ -15721,16 +15736,16 @@
         <v>17</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH112" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI112" t="s" s="2">
-        <v>17</v>
+        <v>345</v>
       </c>
       <c r="AJ112" t="s" s="2">
         <v>101</v>
@@ -15739,31 +15754,31 @@
         <v>17</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>355</v>
+        <v>17</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>356</v>
+        <v>132</v>
       </c>
       <c r="AN112" t="s" s="2">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="AO112" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AP112" t="s" s="2">
-        <v>358</v>
+        <v>17</v>
       </c>
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
-        <v>17</v>
+        <v>348</v>
       </c>
       <c r="E113" s="2"/>
       <c r="F113" t="s" s="2">
@@ -15782,19 +15797,19 @@
         <v>17</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>79</v>
+        <v>188</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>498</v>
+        <v>349</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>499</v>
+        <v>350</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>408</v>
+        <v>351</v>
       </c>
       <c r="O113" t="s" s="2">
-        <v>409</v>
+        <v>352</v>
       </c>
       <c r="P113" t="s" s="2">
         <v>17</v>
@@ -15819,13 +15834,13 @@
         <v>17</v>
       </c>
       <c r="X113" t="s" s="2">
-        <v>17</v>
+        <v>342</v>
       </c>
       <c r="Y113" t="s" s="2">
-        <v>17</v>
+        <v>353</v>
       </c>
       <c r="Z113" t="s" s="2">
-        <v>17</v>
+        <v>354</v>
       </c>
       <c r="AA113" t="s" s="2">
         <v>17</v>
@@ -15843,7 +15858,7 @@
         <v>17</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>77</v>
@@ -15861,23 +15876,145 @@
         <v>17</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>17</v>
+        <v>355</v>
       </c>
       <c r="AM113" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AN113" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AO113" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AP113" t="s" s="2">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="114" hidden="true">
+      <c r="A114" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="B114" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="C114" s="2"/>
+      <c r="D114" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="E114" s="2"/>
+      <c r="F114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G114" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H114" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I114" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J114" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="K114" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="L114" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="M114" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="N114" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="O114" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="P114" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="Q114" s="2"/>
+      <c r="R114" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="S114" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="T114" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="U114" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="V114" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="W114" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="X114" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="Y114" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="Z114" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AA114" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AB114" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AC114" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AD114" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AE114" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AF114" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="AG114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH114" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI114" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AJ114" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK114" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AL114" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AM114" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="AN113" t="s" s="2">
+      <c r="AN114" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="AO113" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AP113" t="s" s="2">
+      <c r="AO114" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AP114" t="s" s="2">
         <v>17</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP113">
+  <autoFilter ref="A1:AP114">
     <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -15887,7 +16024,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI112">
+  <conditionalFormatting sqref="A2:AI113">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
